--- a/docs/詳細設計書/詳細設計書_在庫センター情報画面 (機能改修).xlsx
+++ b/docs/詳細設計書/詳細設計書_在庫センター情報画面 (機能改修).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOJT_模擬開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F47CF0B-9041-47F1-BDAB-3959E952017F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACFF7C1-50C0-4111-B1DD-868F8A3B3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
   <si>
     <t>作成者</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>DB</t>
-  </si>
-  <si>
-    <t>◯</t>
   </si>
   <si>
     <t>画面項目仕様</t>
@@ -302,11 +299,11 @@
     <rPh sb="12" eb="14">
       <t>ヨウリョウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>…</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>既存通り</t>
@@ -316,23 +313,23 @@
     <rPh sb="2" eb="3">
       <t>トオ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>現在容量(㎡)</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>　～</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>現在容量(㎡)_From</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>現在容量(㎡)_To</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>検索部分</t>
@@ -342,18 +339,18 @@
     <rPh sb="2" eb="4">
       <t>ブブン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>在庫センター情報画面 初期表示</t>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>～</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>新規作成
@@ -377,7 +374,7 @@
     <rPh sb="20" eb="22">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>新規作成
@@ -392,56 +389,23 @@
     <rPh sb="17" eb="21">
       <t>ショリショウサイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>在庫センター情報テーブル</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>初期表示：空白
-・文字数を超えた状態でフォーカスを抜けた際に、警告メッセージを表示する。
-・数字以外のデータを入力すると、警告メッセージを表示する。</t>
-    <rPh sb="0" eb="4">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>初期表示：空白
-・文字数を超えた状態でフォーカスを抜けた際に、警告メッセージを表示する。
-・数字以外のデータを入力すると、警告メッセージを表示する。</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>現在容量(㎥)</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>最大容量(㎥)</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>GET /admin/centerInfo</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>引数</t>
@@ -616,7 +580,7 @@
   </si>
   <si>
     <t>1. 初期表示：CenterInfoController.index</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>2.2.1　エラーメッセージを設定：CenterInfoController.handleValidationError</t>
@@ -629,27 +593,27 @@
   </si>
   <si>
     <t>2. 検索結果表示：CenterInfoController.search</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>現在容量(㎥)_From</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>現在容量(㎥)_To</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>・カラム「storageCapacityFrom」に対して、検索項目「現在容量(㎥)_From」で検索</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>・カラム「storageCapacityTo」に対して、検索項目「現在容量(㎥)_To」で検索</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>IT01F004</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>陳　恩美</t>
@@ -662,7 +626,132 @@
     <rPh sb="3" eb="4">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>文字数制限：10文字</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>版数</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>改定日</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>在庫センターに関する情報を管理する画面に下記の表示データの追加および</t>
+    <rPh sb="20" eb="22">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>検索項目を追加する。</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2.2 入力チェック：CenterInfoFormValidator</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>123456789012345678901</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>検索結果明細部分</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>データ表示欄</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>追加項目：現在容量、最大容量</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>検索条件：</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>在庫センター情報テーブル.現在容量</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>検索条件.現在容量_From</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ゲンザイヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>＞=</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>検索条件.現在容量_To</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ゲンザイヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>かつ</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <r>
@@ -676,7 +765,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>赤字→新規追加仕様</t>
+      <t>赤字→新規追加仕様、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青字→レビュー指摘対応</t>
     </r>
     <rPh sb="6" eb="8">
       <t>クロジ</t>
@@ -699,89 +798,71 @@
     <rPh sb="21" eb="23">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>文字数制限：10文字</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>版数</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>改定日</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>在庫センターに関する情報を管理する画面に下記の表示データの追加および</t>
-    <rPh sb="20" eb="22">
-      <t>カキ</t>
+    <rPh sb="24" eb="25">
+      <t>アオ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>検索項目を追加する。</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>2.2 入力チェック：CenterInfoFormValidator</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>123456789012345678901</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>検索結果明細部分</t>
-    <rPh sb="0" eb="4">
-      <t>ケンサクケッカ</t>
+    <rPh sb="31" eb="33">
+      <t>シテキ</t>
     </rPh>
+    <rPh sb="33" eb="35">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>レビュー指摘対応
+・機能概要</t>
     <rPh sb="4" eb="6">
-      <t>メイサイ</t>
+      <t>シテキ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ブブン</t>
+      <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>データ表示欄</t>
-    <rPh sb="3" eb="5">
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>初期表示：空白
+・数字以外のデータを入力すると、警告メッセージを表示する。</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>追加項目：現在容量、最大容量</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>初期表示：空白
+・数字以外のデータを入力すると、警告メッセージを表示する。</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -873,13 +954,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -960,6 +1034,20 @@
     <font>
       <sz val="14"/>
       <color rgb="FFED0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1365,11 +1453,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,9 +1602,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1532,22 +1617,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1556,76 +1638,271 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,41 +1917,11 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1694,22 +1941,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,19 +1986,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1751,55 +2025,85 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1826,272 +2130,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2754,7 +2851,7 @@
   <sheetFormatPr defaultColWidth="3.765625" defaultRowHeight="16" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="3.765625" style="22"/>
-    <col min="2" max="2" width="5.07421875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="5.07421875" style="50" customWidth="1"/>
     <col min="3" max="3" width="12.23046875" style="22" customWidth="1"/>
     <col min="4" max="4" width="10.23046875" style="22" customWidth="1"/>
     <col min="5" max="5" width="66.07421875" style="22" customWidth="1"/>
@@ -2763,17 +2860,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B2" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="76" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B2" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="226" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="226" t="s">
+      <c r="D2" s="76" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -2781,113 +2878,121 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="74.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="65">
+      <c r="B3" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="63">
         <v>45792</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="157" t="s">
+      <c r="D3" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="63">
+        <v>45793</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="65">
-        <v>45793</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="157" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+    <row r="5" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="63">
+        <v>45797</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B6" s="52"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B7" s="52"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B8" s="52"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B9" s="52"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="33"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B10" s="52"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B11" s="52"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B12" s="52"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B13" s="52"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B14" s="52"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B15" s="52"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="33"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2907,259 +3012,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="66" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="74" t="s">
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="66" t="s">
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67" t="s">
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="194" t="s">
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="194"/>
-      <c r="AK1" s="194"/>
-      <c r="AL1" s="73">
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="102">
         <v>45566</v>
       </c>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
     </row>
     <row r="2" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="66" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="74" t="s">
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
     </row>
     <row r="3" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="66" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="67" t="s">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="66" t="s">
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="195" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="195"/>
-      <c r="AI3" s="66" t="s">
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="242" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF3" s="242"/>
+      <c r="AG3" s="242"/>
+      <c r="AH3" s="242"/>
+      <c r="AI3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="196">
-        <v>45792</v>
-      </c>
-      <c r="AM3" s="195"/>
-      <c r="AN3" s="195"/>
-      <c r="AO3" s="195"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="243">
+        <v>45797</v>
+      </c>
+      <c r="AM3" s="242"/>
+      <c r="AN3" s="242"/>
+      <c r="AO3" s="242"/>
     </row>
     <row r="4" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="66" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="195"/>
-      <c r="AH4" s="195"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
-      <c r="AO4" s="195"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="242"/>
+      <c r="AF4" s="242"/>
+      <c r="AG4" s="242"/>
+      <c r="AH4" s="242"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="242"/>
+      <c r="AM4" s="242"/>
+      <c r="AN4" s="242"/>
+      <c r="AO4" s="242"/>
     </row>
     <row r="5" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70" t="s">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70" t="s">
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
     </row>
     <row r="6" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="39"/>
@@ -3184,15 +3289,15 @@
       <c r="T6" s="40"/>
       <c r="U6" s="40"/>
       <c r="V6" s="46"/>
-      <c r="W6" s="197" t="s">
-        <v>178</v>
-      </c>
-      <c r="X6" s="198"/>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="198"/>
-      <c r="AA6" s="198"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
+      <c r="W6" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="24"/>
       <c r="AF6" s="24"/>
@@ -3209,15 +3314,15 @@
     <row r="7" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="41"/>
       <c r="V7" s="47"/>
-      <c r="W7" s="199" t="s">
-        <v>179</v>
-      </c>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="192"/>
-      <c r="AA7" s="192"/>
-      <c r="AB7" s="192"/>
-      <c r="AC7" s="192"/>
+      <c r="W7" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
@@ -3233,30 +3338,30 @@
     <row r="8" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="41"/>
       <c r="V8" s="47"/>
-      <c r="W8" s="200" t="s">
-        <v>86</v>
-      </c>
-      <c r="X8" s="200"/>
-      <c r="Y8" s="200"/>
-      <c r="Z8" s="200"/>
-      <c r="AA8" s="200"/>
-      <c r="AB8" s="200"/>
-      <c r="AC8" s="200"/>
+      <c r="W8" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
       <c r="AM8" s="41"/>
       <c r="AO8" s="47"/>
     </row>
     <row r="9" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="41"/>
       <c r="V9" s="47"/>
-      <c r="W9" s="200" t="s">
-        <v>184</v>
-      </c>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="192"/>
-      <c r="Z9" s="192"/>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="192"/>
+      <c r="W9" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
@@ -3272,66 +3377,82 @@
     <row r="10" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="41"/>
       <c r="V10" s="47"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="27"/>
+      <c r="W10" s="237" t="s">
+        <v>181</v>
+      </c>
+      <c r="X10" s="238"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="238"/>
+      <c r="AE10" s="238"/>
+      <c r="AF10" s="239"/>
+      <c r="AG10" s="239"/>
+      <c r="AH10" s="238"/>
+      <c r="AI10" s="238"/>
+      <c r="AJ10" s="238"/>
+      <c r="AK10" s="238"/>
+      <c r="AL10" s="240"/>
       <c r="AM10" s="41"/>
       <c r="AO10" s="47"/>
     </row>
     <row r="11" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="41"/>
       <c r="V11" s="47"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="27"/>
+      <c r="W11" s="237"/>
+      <c r="X11" s="238" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="239"/>
+      <c r="AF11" s="238" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG11" s="238" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH11" s="238"/>
+      <c r="AI11" s="238"/>
+      <c r="AJ11" s="238"/>
+      <c r="AK11" s="238"/>
+      <c r="AL11" s="240"/>
       <c r="AM11" s="41"/>
       <c r="AO11" s="47"/>
     </row>
     <row r="12" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="41"/>
       <c r="V12" s="47"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="27"/>
+      <c r="W12" s="237" t="s">
+        <v>188</v>
+      </c>
+      <c r="X12" s="238" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="238"/>
+      <c r="AE12" s="239"/>
+      <c r="AF12" s="238" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG12" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH12" s="238"/>
+      <c r="AI12" s="238"/>
+      <c r="AJ12" s="238"/>
+      <c r="AK12" s="238"/>
+      <c r="AL12" s="240"/>
       <c r="AM12" s="41"/>
       <c r="AO12" s="47"/>
     </row>
@@ -3489,7 +3610,7 @@
       <c r="S19" s="43"/>
       <c r="T19" s="43"/>
       <c r="U19" s="43"/>
-      <c r="V19" s="49"/>
+      <c r="V19" s="48"/>
       <c r="W19" s="25"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
@@ -3508,27 +3629,27 @@
       <c r="AL19" s="29"/>
       <c r="AM19" s="42"/>
       <c r="AN19" s="43"/>
-      <c r="AO19" s="49"/>
+      <c r="AO19" s="48"/>
     </row>
     <row r="20" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="70" t="s">
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="70"/>
+      <c r="L20" s="116"/>
       <c r="M20" s="20" t="s">
         <v>20</v>
       </c>
@@ -3541,65 +3662,59 @@
       <c r="P20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="71" t="s">
+      <c r="Q20" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="114"/>
+      <c r="AM20" s="114"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
     </row>
     <row r="21" spans="1:41" ht="27.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="67">
+      <c r="A21" s="103">
         <v>1</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="158" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="67" t="s">
+      <c r="B21" s="115"/>
+      <c r="C21" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="L21" s="103"/>
+      <c r="M21" s="241"/>
+      <c r="N21" s="241" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="241"/>
+      <c r="P21" s="241"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
@@ -3624,11 +3739,11 @@
       <c r="AL21" s="45"/>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45"/>
-      <c r="AO21" s="50"/>
+      <c r="AO21" s="49"/>
     </row>
     <row r="22" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="67"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="44"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -3637,8 +3752,8 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
@@ -3667,11 +3782,11 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45"/>
-      <c r="AO22" s="50"/>
+      <c r="AO22" s="49"/>
     </row>
     <row r="23" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="44"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -3680,8 +3795,8 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="33"/>
       <c r="N23" s="33"/>
       <c r="O23" s="33"/>
@@ -3710,11 +3825,11 @@
       <c r="AL23" s="45"/>
       <c r="AM23" s="45"/>
       <c r="AN23" s="45"/>
-      <c r="AO23" s="50"/>
+      <c r="AO23" s="49"/>
     </row>
     <row r="24" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="44"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -3723,8 +3838,8 @@
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
@@ -3753,11 +3868,11 @@
       <c r="AL24" s="45"/>
       <c r="AM24" s="45"/>
       <c r="AN24" s="45"/>
-      <c r="AO24" s="50"/>
+      <c r="AO24" s="49"/>
     </row>
     <row r="25" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="44"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -3766,8 +3881,8 @@
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
@@ -3796,11 +3911,11 @@
       <c r="AL25" s="45"/>
       <c r="AM25" s="45"/>
       <c r="AN25" s="45"/>
-      <c r="AO25" s="50"/>
+      <c r="AO25" s="49"/>
     </row>
     <row r="26" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="44"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
@@ -3809,8 +3924,8 @@
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
       <c r="J26" s="45"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
@@ -3839,11 +3954,11 @@
       <c r="AL26" s="45"/>
       <c r="AM26" s="45"/>
       <c r="AN26" s="45"/>
-      <c r="AO26" s="50"/>
+      <c r="AO26" s="49"/>
     </row>
     <row r="27" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="44"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
@@ -3852,8 +3967,8 @@
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
       <c r="J27" s="45"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
@@ -3882,11 +3997,11 @@
       <c r="AL27" s="45"/>
       <c r="AM27" s="45"/>
       <c r="AN27" s="45"/>
-      <c r="AO27" s="50"/>
+      <c r="AO27" s="49"/>
     </row>
     <row r="28" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="44"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
@@ -3895,8 +4010,8 @@
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
       <c r="J28" s="45"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
       <c r="O28" s="33"/>
@@ -3925,11 +4040,11 @@
       <c r="AL28" s="45"/>
       <c r="AM28" s="45"/>
       <c r="AN28" s="45"/>
-      <c r="AO28" s="50"/>
+      <c r="AO28" s="49"/>
     </row>
     <row r="29" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="44"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
@@ -3938,8 +4053,8 @@
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
       <c r="O29" s="33"/>
@@ -3968,11 +4083,11 @@
       <c r="AL29" s="45"/>
       <c r="AM29" s="45"/>
       <c r="AN29" s="45"/>
-      <c r="AO29" s="50"/>
+      <c r="AO29" s="49"/>
     </row>
     <row r="30" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="44"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
@@ -3981,8 +4096,8 @@
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
@@ -4011,11 +4126,11 @@
       <c r="AL30" s="45"/>
       <c r="AM30" s="45"/>
       <c r="AN30" s="45"/>
-      <c r="AO30" s="50"/>
+      <c r="AO30" s="49"/>
     </row>
     <row r="31" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="44"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
@@ -4024,8 +4139,8 @@
       <c r="H31" s="45"/>
       <c r="I31" s="45"/>
       <c r="J31" s="45"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
@@ -4054,11 +4169,11 @@
       <c r="AL31" s="45"/>
       <c r="AM31" s="45"/>
       <c r="AN31" s="45"/>
-      <c r="AO31" s="50"/>
+      <c r="AO31" s="49"/>
     </row>
     <row r="32" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="44"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
@@ -4067,8 +4182,8 @@
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
       <c r="J32" s="45"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
       <c r="O32" s="33"/>
@@ -4097,11 +4212,11 @@
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
       <c r="AN32" s="45"/>
-      <c r="AO32" s="50"/>
+      <c r="AO32" s="49"/>
     </row>
     <row r="33" spans="1:41" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -4144,6 +4259,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AI3:AK4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="W5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="AE1:AH2"/>
@@ -4160,42 +4309,8 @@
     <mergeCell ref="AB3:AD4"/>
     <mergeCell ref="Q20:AO20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A5:V5"/>
-    <mergeCell ref="W5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AI3:AK4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K23:L23"/>
   </mergeCells>
-  <phoneticPr fontId="15"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4225,90 +4340,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="A1" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="201" t="s">
+      <c r="J1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88">
+      <c r="K1" s="151">
         <v>45566</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="89"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="152"/>
     </row>
     <row r="3" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="203" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3" s="86" t="s">
+      <c r="I3" s="142" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="205">
+      <c r="K3" s="153">
         <v>45792</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
       <c r="F4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="206"/>
+        <v>167</v>
+      </c>
+      <c r="H4" s="109"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="154"/>
     </row>
     <row r="5" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="19"/>
@@ -4324,370 +4439,372 @@
       <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" s="31" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="193" t="s">
+      <c r="F6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="G6" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="146"/>
+    </row>
+    <row r="7" spans="1:11" s="31" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="139"/>
+      <c r="B7" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
-    </row>
-    <row r="7" spans="1:11" s="31" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="55" t="s">
+      <c r="G7" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="H7" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="I7" s="146"/>
+      <c r="J7" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="98"/>
-      <c r="J7" s="96" t="s">
+      <c r="K7" s="146"/>
+    </row>
+    <row r="8" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
+    </row>
+    <row r="9" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="55"/>
+      <c r="B9" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
+    </row>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="55"/>
+      <c r="B10" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
+    </row>
+    <row r="11" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="81">
+        <v>1</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="98"/>
-    </row>
-    <row r="8" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101"/>
-    </row>
-    <row r="9" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="57"/>
-      <c r="B9" s="93" t="s">
+      <c r="G11" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="124"/>
+      <c r="J11" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="124"/>
+    </row>
+    <row r="12" spans="1:11" s="31" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="81">
+        <v>2</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="123" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="124"/>
+    </row>
+    <row r="13" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="81">
+        <v>3</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="124"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
+    </row>
+    <row r="14" spans="1:11" s="31" customFormat="1" ht="87.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="90">
+        <v>4</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="130" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="131"/>
+    </row>
+    <row r="15" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="133" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="135"/>
+    </row>
+    <row r="16" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="81"/>
+      <c r="B16" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="124"/>
+    </row>
+    <row r="17" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="81"/>
+      <c r="B17" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95"/>
-    </row>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="57"/>
-      <c r="B10" s="93" t="s">
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
+    </row>
+    <row r="18" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="81">
+        <v>5</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
+    </row>
+    <row r="19" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="81">
+        <v>6</v>
+      </c>
+      <c r="B19" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="124"/>
+    </row>
+    <row r="20" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="81">
+        <v>7</v>
+      </c>
+      <c r="B20" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95"/>
-    </row>
-    <row r="11" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="207">
-        <v>1</v>
-      </c>
-      <c r="B11" s="208" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209" t="s">
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="210" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="211" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="212"/>
-      <c r="J11" s="211" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="212"/>
-    </row>
-    <row r="12" spans="1:11" s="31" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="207">
-        <v>2</v>
-      </c>
-      <c r="B12" s="208" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="209" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="210" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="211" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="212"/>
-      <c r="J12" s="213" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="212"/>
-    </row>
-    <row r="13" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="207">
-        <v>3</v>
-      </c>
-      <c r="B13" s="208" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209" t="s">
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="124"/>
+    </row>
+    <row r="21" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="81">
+        <v>8</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="209" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="211" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="212"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="212"/>
-    </row>
-    <row r="14" spans="1:11" s="31" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="231">
-        <v>4</v>
-      </c>
-      <c r="B14" s="232" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="233" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="234" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="235" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" s="236"/>
-      <c r="J14" s="237" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="236"/>
-    </row>
-    <row r="15" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="238" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="240"/>
-    </row>
-    <row r="16" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="207"/>
-      <c r="B16" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="212"/>
-    </row>
-    <row r="17" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="207"/>
-      <c r="B17" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="212"/>
-    </row>
-    <row r="18" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="207">
-        <v>5</v>
-      </c>
-      <c r="B18" s="208" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="209" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="209" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="212"/>
-    </row>
-    <row r="19" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="207">
-        <v>6</v>
-      </c>
-      <c r="B19" s="208" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="208"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="209" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="209" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="211"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="212"/>
-    </row>
-    <row r="20" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="207">
-        <v>7</v>
-      </c>
-      <c r="B20" s="208" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="208"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="209" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="209" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="211"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="211"/>
-      <c r="K20" s="212"/>
-    </row>
-    <row r="21" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="207">
-        <v>8</v>
-      </c>
-      <c r="B21" s="208" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="208"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="209" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="209" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="211"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="211"/>
-      <c r="K21" s="212"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
     </row>
     <row r="22" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="207"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="211"/>
-      <c r="K22" s="212"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
     </row>
     <row r="23" spans="1:11" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="214"/>
-      <c r="B23" s="223"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="224"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="216"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
@@ -4704,32 +4821,30 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
-  <phoneticPr fontId="15"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="12" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4740,7 +4855,7 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16:AC16"/>
+      <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69140625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -4758,222 +4873,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="66" t="s">
+      <c r="A1" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="74" t="s">
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="66" t="s">
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67" t="s">
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="194" t="s">
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="194"/>
-      <c r="AK1" s="194"/>
-      <c r="AL1" s="73">
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="102">
         <v>45566</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="66" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="74" t="s">
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="67"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="103"/>
     </row>
     <row r="3" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="66" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="67" t="s">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="66" t="s">
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="195" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="195"/>
-      <c r="AI3" s="66" t="s">
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="196">
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="108">
         <v>45793</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="66" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="130" t="s">
-        <v>170</v>
-      </c>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="195"/>
-      <c r="AH4" s="195"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="195"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="180" t="s">
+        <v>167</v>
+      </c>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="180"/>
+      <c r="Y4" s="180"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="104"/>
     </row>
     <row r="5" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="153" t="s">
+      <c r="E5" s="182"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="128" t="s">
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
       <c r="Q5" s="31"/>
@@ -5000,93 +5115,93 @@
       <c r="AL5" s="31"/>
     </row>
     <row r="6" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="123"/>
+      <c r="A6" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114"/>
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114"/>
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="185"/>
     </row>
     <row r="7" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="125"/>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="125"/>
+      <c r="A7" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
+      <c r="Y7" s="187"/>
+      <c r="Z7" s="187"/>
+      <c r="AA7" s="187"/>
+      <c r="AB7" s="187"/>
+      <c r="AC7" s="187"/>
+      <c r="AD7" s="187"/>
+      <c r="AE7" s="187"/>
+      <c r="AF7" s="187"/>
+      <c r="AG7" s="187"/>
+      <c r="AH7" s="187"/>
+      <c r="AI7" s="187"/>
+      <c r="AJ7" s="187"/>
+      <c r="AK7" s="187"/>
+      <c r="AL7" s="187"/>
     </row>
     <row r="8" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -5128,12 +5243,12 @@
     <row r="9" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
+      <c r="C9" s="190" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="192"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -5170,10 +5285,10 @@
     <row r="10" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -5211,7 +5326,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -5301,7 +5416,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -5318,45 +5433,44 @@
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="27"/>
       <c r="I14" s="22"/>
       <c r="J14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="173"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="175"/>
+      <c r="P14" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="119"/>
-      <c r="P14" s="18" t="s">
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="34" t="s">
+      <c r="V14" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="200" t="s">
-        <v>101</v>
-      </c>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="218"/>
-      <c r="AA14" s="222" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="62"/>
-      <c r="AI14" s="165"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="60"/>
       <c r="AJ14" s="27"/>
       <c r="AK14" s="22"/>
       <c r="AL14" s="22"/>
@@ -5369,20 +5483,20 @@
       <c r="E15" s="22"/>
       <c r="F15" s="27"/>
       <c r="G15" s="22"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
       <c r="AH15" s="22"/>
-      <c r="AI15" s="166"/>
+      <c r="AI15" s="22"/>
       <c r="AJ15" s="27"/>
       <c r="AK15" s="22"/>
       <c r="AL15" s="22"/>
@@ -5391,50 +5505,49 @@
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="27"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="J16" s="159" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="159" t="s">
+      <c r="J16" s="161" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="161" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162" t="s">
+      <c r="S16" s="165"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="162" t="s">
-        <v>55</v>
-      </c>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="219" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA16" s="220"/>
-      <c r="AB16" s="220"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="219" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE16" s="220"/>
-      <c r="AF16" s="220"/>
-      <c r="AG16" s="221"/>
-      <c r="AI16" s="165"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="169"/>
+      <c r="AD16" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE16" s="168"/>
+      <c r="AF16" s="168"/>
+      <c r="AG16" s="169"/>
       <c r="AJ16" s="47"/>
     </row>
     <row r="17" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -5446,93 +5559,91 @@
       <c r="F17" s="27"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
-      <c r="J17" s="114" t="s">
+      <c r="J17" s="170" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117" t="s">
+      <c r="O17" s="174"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="120" t="s">
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="119"/>
-      <c r="Z17" s="228">
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="176">
         <v>500</v>
       </c>
-      <c r="AA17" s="229"/>
-      <c r="AB17" s="229"/>
-      <c r="AC17" s="230"/>
-      <c r="AD17" s="228">
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="178"/>
+      <c r="AD17" s="176">
         <v>350</v>
       </c>
-      <c r="AE17" s="229"/>
-      <c r="AF17" s="229"/>
-      <c r="AG17" s="230"/>
-      <c r="AI17" s="165"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="177"/>
+      <c r="AG17" s="178"/>
       <c r="AJ17" s="47"/>
     </row>
     <row r="18" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="27"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="J18" s="114" t="s">
+      <c r="J18" s="170" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117" t="s">
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="120" t="s">
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="119"/>
-      <c r="Z18" s="228">
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="176">
         <v>300</v>
       </c>
-      <c r="AA18" s="229"/>
-      <c r="AB18" s="229"/>
-      <c r="AC18" s="230"/>
-      <c r="AD18" s="228">
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="178"/>
+      <c r="AD18" s="176">
         <v>250</v>
       </c>
-      <c r="AE18" s="229"/>
-      <c r="AF18" s="229"/>
-      <c r="AG18" s="230"/>
-      <c r="AI18" s="165"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="177"/>
+      <c r="AG18" s="178"/>
       <c r="AJ18" s="47"/>
     </row>
     <row r="19" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -5544,43 +5655,42 @@
       <c r="F19" s="27"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="J19" s="114" t="s">
+      <c r="J19" s="170" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="117" t="s">
+      <c r="O19" s="174"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="120" t="s">
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="228">
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="175"/>
+      <c r="Z19" s="176">
         <v>600</v>
       </c>
-      <c r="AA19" s="229"/>
-      <c r="AB19" s="229"/>
-      <c r="AC19" s="230"/>
-      <c r="AD19" s="228">
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="178"/>
+      <c r="AD19" s="176">
         <v>250</v>
       </c>
-      <c r="AE19" s="229"/>
-      <c r="AF19" s="229"/>
-      <c r="AG19" s="230"/>
-      <c r="AI19" s="165"/>
+      <c r="AE19" s="177"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="178"/>
       <c r="AJ19" s="47"/>
     </row>
     <row r="20" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -5592,43 +5702,42 @@
       <c r="F20" s="27"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="J20" s="114" t="s">
+      <c r="J20" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="117" t="s">
+      <c r="O20" s="174"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="120" t="s">
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="228">
+      <c r="W20" s="174"/>
+      <c r="X20" s="174"/>
+      <c r="Y20" s="175"/>
+      <c r="Z20" s="176">
         <v>400</v>
       </c>
-      <c r="AA20" s="229"/>
-      <c r="AB20" s="229"/>
-      <c r="AC20" s="230"/>
-      <c r="AD20" s="228">
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="178"/>
+      <c r="AD20" s="176">
         <v>300</v>
       </c>
-      <c r="AE20" s="229"/>
-      <c r="AF20" s="229"/>
-      <c r="AG20" s="230"/>
-      <c r="AI20" s="165"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="178"/>
       <c r="AJ20" s="47"/>
     </row>
     <row r="21" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -5640,43 +5749,42 @@
       <c r="F21" s="27"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="J21" s="114" t="s">
+      <c r="J21" s="170" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="117" t="s">
+      <c r="O21" s="174"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="120" t="s">
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="228">
+      <c r="W21" s="174"/>
+      <c r="X21" s="174"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="176">
         <v>350</v>
       </c>
-      <c r="AA21" s="229"/>
-      <c r="AB21" s="229"/>
-      <c r="AC21" s="230"/>
-      <c r="AD21" s="228">
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="178"/>
+      <c r="AD21" s="176">
         <v>150</v>
       </c>
-      <c r="AE21" s="229"/>
-      <c r="AF21" s="229"/>
-      <c r="AG21" s="230"/>
-      <c r="AI21" s="165"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="178"/>
       <c r="AJ21" s="47"/>
     </row>
     <row r="22" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -5688,43 +5796,42 @@
       <c r="F22" s="27"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="J22" s="114" t="s">
+      <c r="J22" s="170" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="117" t="s">
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="179" t="s">
         <v>78</v>
       </c>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="120" t="s">
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="119"/>
-      <c r="Z22" s="228">
+      <c r="W22" s="174"/>
+      <c r="X22" s="174"/>
+      <c r="Y22" s="175"/>
+      <c r="Z22" s="176">
         <v>1200</v>
       </c>
-      <c r="AA22" s="229"/>
-      <c r="AB22" s="229"/>
-      <c r="AC22" s="230"/>
-      <c r="AD22" s="228">
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="178"/>
+      <c r="AD22" s="176">
         <v>300</v>
       </c>
-      <c r="AE22" s="229"/>
-      <c r="AF22" s="229"/>
-      <c r="AG22" s="230"/>
-      <c r="AI22" s="165"/>
+      <c r="AE22" s="177"/>
+      <c r="AF22" s="177"/>
+      <c r="AG22" s="178"/>
       <c r="AJ22" s="47"/>
     </row>
     <row r="23" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5736,43 +5843,42 @@
       <c r="F23" s="27"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
-      <c r="J23" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="103"/>
-      <c r="AG23" s="104"/>
-      <c r="AI23" s="165"/>
+      <c r="J23" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" s="159"/>
+      <c r="T23" s="159"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="157"/>
+      <c r="Z23" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="157"/>
+      <c r="AD23" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="157"/>
       <c r="AJ23" s="47"/>
     </row>
     <row r="24" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5784,43 +5890,42 @@
       <c r="F24" s="27"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="J24" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="104"/>
-      <c r="AI24" s="165"/>
+      <c r="J24" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="S24" s="159"/>
+      <c r="T24" s="159"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="157"/>
+      <c r="Z24" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="157"/>
+      <c r="AD24" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="157"/>
       <c r="AJ24" s="47"/>
     </row>
     <row r="25" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5832,43 +5937,42 @@
       <c r="F25" s="27"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
-      <c r="J25" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="103"/>
-      <c r="AG25" s="104"/>
-      <c r="AI25" s="165"/>
+      <c r="J25" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" s="159"/>
+      <c r="T25" s="159"/>
+      <c r="U25" s="160"/>
+      <c r="V25" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="157"/>
+      <c r="Z25" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="157"/>
+      <c r="AD25" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="157"/>
       <c r="AJ25" s="47"/>
     </row>
     <row r="26" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5880,43 +5984,42 @@
       <c r="F26" s="27"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="J26" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="103"/>
-      <c r="AG26" s="104"/>
-      <c r="AI26" s="165"/>
+      <c r="J26" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="157"/>
+      <c r="Z26" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="157"/>
+      <c r="AD26" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="157"/>
       <c r="AJ26" s="47"/>
     </row>
     <row r="27" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5928,43 +6031,42 @@
       <c r="F27" s="27"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="J27" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="104"/>
-      <c r="AI27" s="165"/>
+      <c r="J27" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="156"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="157"/>
+      <c r="Z27" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="157"/>
+      <c r="AD27" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="157"/>
       <c r="AJ27" s="47"/>
     </row>
     <row r="28" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5976,43 +6078,42 @@
       <c r="F28" s="27"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="J28" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="103"/>
-      <c r="AG28" s="104"/>
-      <c r="AI28" s="165"/>
+      <c r="J28" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="157"/>
+      <c r="Z28" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="157"/>
+      <c r="AD28" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="157"/>
       <c r="AJ28" s="47"/>
     </row>
     <row r="29" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6024,43 +6125,42 @@
       <c r="F29" s="27"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="J29" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="103"/>
-      <c r="AG29" s="104"/>
-      <c r="AI29" s="165"/>
+      <c r="J29" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" s="159"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="160"/>
+      <c r="V29" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
+      <c r="Y29" s="157"/>
+      <c r="Z29" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="157"/>
+      <c r="AD29" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE29" s="156"/>
+      <c r="AF29" s="156"/>
+      <c r="AG29" s="157"/>
       <c r="AJ29" s="47"/>
     </row>
     <row r="30" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -6073,18 +6173,18 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
       <c r="AH30" s="22"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="27"/>
@@ -6230,6 +6330,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AI3:AK4"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="Z22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="N16:Q16"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="V28:Y28"/>
     <mergeCell ref="Z28:AC28"/>
@@ -6250,99 +6437,12 @@
     <mergeCell ref="V27:Y27"/>
     <mergeCell ref="Z27:AC27"/>
     <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="V24:Y24"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="R28:U28"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="AI3:AK4"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="C9:F10"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="R27:U27"/>
   </mergeCells>
-  <phoneticPr fontId="15"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="11" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6370,222 +6470,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="131" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="140" t="s">
+      <c r="A1" s="225" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="141" t="s">
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="140" t="s">
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="130" t="s">
+      <c r="AC1" s="215"/>
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="140" t="s">
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="140"/>
-      <c r="AL1" s="129">
+      <c r="AJ1" s="215"/>
+      <c r="AK1" s="215"/>
+      <c r="AL1" s="224">
         <v>45566</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="134"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="140" t="s">
+      <c r="A2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141" t="s">
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="130"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="180"/>
     </row>
     <row r="3" spans="1:39" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="134"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="140" t="s">
+      <c r="A3" s="228"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="130" t="s">
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="140" t="s">
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="195" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="195"/>
-      <c r="AI3" s="140" t="s">
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="140"/>
-      <c r="AK3" s="140"/>
-      <c r="AL3" s="205">
+      <c r="AJ3" s="215"/>
+      <c r="AK3" s="215"/>
+      <c r="AL3" s="153">
         <v>45793</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="137"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="140" t="s">
+      <c r="A4" s="231"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="233"/>
+      <c r="O4" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="130" t="s">
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="140"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="195"/>
-      <c r="AH4" s="195"/>
-      <c r="AI4" s="140"/>
-      <c r="AJ4" s="140"/>
-      <c r="AK4" s="140"/>
-      <c r="AL4" s="206"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="180"/>
+      <c r="Y4" s="180"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="215"/>
+      <c r="AK4" s="215"/>
+      <c r="AL4" s="154"/>
     </row>
     <row r="5" spans="1:39" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="213" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153" t="s">
+      <c r="E5" s="182"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="152" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="156" t="s">
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="214"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -6612,59 +6712,59 @@
       <c r="AL5" s="9"/>
     </row>
     <row r="6" spans="1:39" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="216" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145" t="s">
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="218"/>
+      <c r="U6" s="218"/>
+      <c r="V6" s="218"/>
+      <c r="W6" s="218"/>
+      <c r="X6" s="218"/>
+      <c r="Y6" s="218"/>
+      <c r="Z6" s="218"/>
+      <c r="AA6" s="218"/>
+      <c r="AB6" s="218"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="219"/>
+      <c r="AF6" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG6" s="144"/>
-      <c r="AH6" s="144"/>
-      <c r="AI6" s="144"/>
-      <c r="AJ6" s="144"/>
-      <c r="AK6" s="144"/>
-      <c r="AL6" s="144"/>
+      <c r="AG6" s="216"/>
+      <c r="AH6" s="216"/>
+      <c r="AI6" s="216"/>
+      <c r="AJ6" s="216"/>
+      <c r="AK6" s="216"/>
+      <c r="AL6" s="216"/>
     </row>
     <row r="7" spans="1:39" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+      <c r="A7" s="220"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
       <c r="H7" s="3"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -6689,385 +6789,385 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="11"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="150"/>
-      <c r="AL7" s="151"/>
+      <c r="AF7" s="222"/>
+      <c r="AG7" s="222"/>
+      <c r="AH7" s="222"/>
+      <c r="AI7" s="222"/>
+      <c r="AJ7" s="222"/>
+      <c r="AK7" s="222"/>
+      <c r="AL7" s="223"/>
     </row>
     <row r="8" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="169" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
+      <c r="A8" s="206" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="207"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
       <c r="H8" s="4"/>
       <c r="I8" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AE8" s="12"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167"/>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="168"/>
+      <c r="AF8" s="210"/>
+      <c r="AG8" s="210"/>
+      <c r="AH8" s="210"/>
+      <c r="AI8" s="210"/>
+      <c r="AJ8" s="210"/>
+      <c r="AK8" s="210"/>
+      <c r="AL8" s="211"/>
     </row>
     <row r="9" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="169" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
+      <c r="A9" s="206" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
       <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AE9" s="12"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="167"/>
-      <c r="AL9" s="168"/>
-      <c r="AM9" s="190"/>
+      <c r="AF9" s="210"/>
+      <c r="AG9" s="210"/>
+      <c r="AH9" s="210"/>
+      <c r="AI9" s="210"/>
+      <c r="AJ9" s="210"/>
+      <c r="AK9" s="210"/>
+      <c r="AL9" s="211"/>
+      <c r="AM9" s="72"/>
     </row>
     <row r="10" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="169" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
+      <c r="A10" s="206" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="207"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
       <c r="H10" s="4"/>
       <c r="K10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AE10" s="12"/>
-      <c r="AF10" s="171"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="171"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="171"/>
-      <c r="AL10" s="172"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="66"/>
     </row>
     <row r="11" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="173"/>
-      <c r="B11" s="174"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="4"/>
       <c r="K11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AE11" s="12"/>
-      <c r="AF11" s="171"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="171"/>
-      <c r="AI11" s="171"/>
-      <c r="AJ11" s="171"/>
-      <c r="AK11" s="171"/>
-      <c r="AL11" s="172"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="66"/>
     </row>
     <row r="12" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="169"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
+      <c r="A12" s="206"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
       <c r="H12" s="4"/>
       <c r="AE12" s="12"/>
-      <c r="AF12" s="167"/>
-      <c r="AG12" s="167"/>
-      <c r="AH12" s="167"/>
-      <c r="AI12" s="167"/>
-      <c r="AJ12" s="167"/>
-      <c r="AK12" s="167"/>
-      <c r="AL12" s="168"/>
+      <c r="AF12" s="210"/>
+      <c r="AG12" s="210"/>
+      <c r="AH12" s="210"/>
+      <c r="AI12" s="210"/>
+      <c r="AJ12" s="210"/>
+      <c r="AK12" s="210"/>
+      <c r="AL12" s="211"/>
     </row>
     <row r="13" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="169"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
+      <c r="A13" s="206"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
       <c r="H13" s="4"/>
       <c r="J13" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="170" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG13" s="170"/>
-      <c r="AH13" s="170"/>
-      <c r="AI13" s="170"/>
-      <c r="AJ13" s="170"/>
-      <c r="AK13" s="170"/>
-      <c r="AL13" s="175"/>
-      <c r="AM13" s="190"/>
+      <c r="AF13" s="207" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG13" s="207"/>
+      <c r="AH13" s="207"/>
+      <c r="AI13" s="207"/>
+      <c r="AJ13" s="207"/>
+      <c r="AK13" s="207"/>
+      <c r="AL13" s="212"/>
+      <c r="AM13" s="72"/>
     </row>
     <row r="14" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="169"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
+      <c r="A14" s="206"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
       <c r="H14" s="4"/>
       <c r="K14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AE14" s="12"/>
-      <c r="AF14" s="167"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="167"/>
-      <c r="AI14" s="167"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="167"/>
-      <c r="AL14" s="168"/>
+      <c r="AF14" s="210"/>
+      <c r="AG14" s="210"/>
+      <c r="AH14" s="210"/>
+      <c r="AI14" s="210"/>
+      <c r="AJ14" s="210"/>
+      <c r="AK14" s="210"/>
+      <c r="AL14" s="211"/>
     </row>
     <row r="15" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="169"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
       <c r="H15" s="4"/>
       <c r="K15" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AE15" s="12"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="167"/>
-      <c r="AI15" s="167"/>
-      <c r="AJ15" s="167"/>
-      <c r="AK15" s="167"/>
-      <c r="AL15" s="168"/>
+      <c r="AF15" s="210"/>
+      <c r="AG15" s="210"/>
+      <c r="AH15" s="210"/>
+      <c r="AI15" s="210"/>
+      <c r="AJ15" s="210"/>
+      <c r="AK15" s="210"/>
+      <c r="AL15" s="211"/>
     </row>
     <row r="16" spans="1:39" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="173"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="4"/>
       <c r="AE16" s="12"/>
-      <c r="AF16" s="171"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="171"/>
-      <c r="AI16" s="171"/>
-      <c r="AJ16" s="171"/>
-      <c r="AK16" s="171"/>
-      <c r="AL16" s="172"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="66"/>
     </row>
     <row r="17" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="170" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="175"/>
+      <c r="A17" s="207" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="212"/>
       <c r="H17" s="4"/>
       <c r="J17" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AE17" s="12"/>
-      <c r="AF17" s="171"/>
-      <c r="AG17" s="171"/>
-      <c r="AH17" s="171"/>
-      <c r="AI17" s="171"/>
-      <c r="AJ17" s="171"/>
-      <c r="AK17" s="171"/>
-      <c r="AL17" s="172"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="66"/>
     </row>
     <row r="18" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="4"/>
       <c r="AE18" s="12"/>
-      <c r="AF18" s="171"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="171"/>
-      <c r="AI18" s="171"/>
-      <c r="AJ18" s="171"/>
-      <c r="AK18" s="171"/>
-      <c r="AL18" s="172"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="66"/>
     </row>
     <row r="19" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="169"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
+      <c r="A19" s="206"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
       <c r="H19" s="4"/>
       <c r="J19" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AE19" s="12"/>
-      <c r="AF19" s="167"/>
-      <c r="AG19" s="167"/>
-      <c r="AH19" s="167"/>
-      <c r="AI19" s="167"/>
-      <c r="AJ19" s="167"/>
-      <c r="AK19" s="167"/>
-      <c r="AL19" s="168"/>
+      <c r="AF19" s="210"/>
+      <c r="AG19" s="210"/>
+      <c r="AH19" s="210"/>
+      <c r="AI19" s="210"/>
+      <c r="AJ19" s="210"/>
+      <c r="AK19" s="210"/>
+      <c r="AL19" s="211"/>
     </row>
     <row r="20" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="173"/>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="4"/>
       <c r="K20" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE20" s="12"/>
-      <c r="AF20" s="171"/>
-      <c r="AG20" s="171"/>
-      <c r="AH20" s="171"/>
-      <c r="AI20" s="171"/>
-      <c r="AJ20" s="171"/>
-      <c r="AK20" s="171"/>
-      <c r="AL20" s="172"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="66"/>
     </row>
     <row r="21" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="173"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="4"/>
       <c r="K21" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AE21" s="12"/>
-      <c r="AF21" s="171"/>
-      <c r="AG21" s="171"/>
-      <c r="AH21" s="171"/>
-      <c r="AI21" s="171"/>
-      <c r="AJ21" s="171"/>
-      <c r="AK21" s="171"/>
-      <c r="AL21" s="172"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="66"/>
     </row>
     <row r="22" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="4"/>
       <c r="AE22" s="12"/>
-      <c r="AF22" s="171"/>
-      <c r="AG22" s="171"/>
-      <c r="AH22" s="171"/>
-      <c r="AI22" s="171"/>
-      <c r="AJ22" s="171"/>
-      <c r="AK22" s="171"/>
-      <c r="AL22" s="172"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="66"/>
     </row>
     <row r="23" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="176"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="4"/>
       <c r="J23" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AE23" s="12"/>
-      <c r="AF23" s="174" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG23" s="171"/>
-      <c r="AH23" s="171"/>
-      <c r="AI23" s="171"/>
-      <c r="AJ23" s="171"/>
-      <c r="AK23" s="171"/>
-      <c r="AL23" s="172"/>
+      <c r="AF23" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="66"/>
     </row>
     <row r="24" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="176"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="4"/>
       <c r="AE24" s="12"/>
-      <c r="AF24" s="174"/>
-      <c r="AG24" s="171"/>
-      <c r="AH24" s="171"/>
-      <c r="AI24" s="171"/>
-      <c r="AJ24" s="171"/>
-      <c r="AK24" s="171"/>
-      <c r="AL24" s="172"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="66"/>
     </row>
     <row r="25" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="169" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
+      <c r="A25" s="206" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="207"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="177"/>
+        <v>162</v>
+      </c>
+      <c r="J25" s="70"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -7089,104 +7189,104 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="13"/>
-      <c r="AF25" s="178"/>
-      <c r="AG25" s="178"/>
-      <c r="AH25" s="178"/>
-      <c r="AI25" s="178"/>
-      <c r="AJ25" s="178"/>
-      <c r="AK25" s="178"/>
-      <c r="AL25" s="179"/>
+      <c r="AF25" s="208"/>
+      <c r="AG25" s="208"/>
+      <c r="AH25" s="208"/>
+      <c r="AI25" s="208"/>
+      <c r="AJ25" s="208"/>
+      <c r="AK25" s="208"/>
+      <c r="AL25" s="209"/>
     </row>
     <row r="26" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="169" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
+      <c r="A26" s="206" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
       <c r="H26" s="4"/>
       <c r="J26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AE26" s="12"/>
-      <c r="AF26" s="167"/>
-      <c r="AG26" s="167"/>
-      <c r="AH26" s="167"/>
-      <c r="AI26" s="167"/>
-      <c r="AJ26" s="167"/>
-      <c r="AK26" s="167"/>
-      <c r="AL26" s="168"/>
+      <c r="AF26" s="210"/>
+      <c r="AG26" s="210"/>
+      <c r="AH26" s="210"/>
+      <c r="AI26" s="210"/>
+      <c r="AJ26" s="210"/>
+      <c r="AK26" s="210"/>
+      <c r="AL26" s="211"/>
     </row>
     <row r="27" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="173"/>
-      <c r="B27" s="174" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="4"/>
       <c r="K27" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AE27" s="12"/>
-      <c r="AF27" s="171"/>
-      <c r="AG27" s="171"/>
-      <c r="AH27" s="171"/>
-      <c r="AI27" s="171"/>
-      <c r="AJ27" s="171"/>
-      <c r="AK27" s="171"/>
-      <c r="AL27" s="172"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="66"/>
     </row>
     <row r="28" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="173"/>
-      <c r="B28" s="174" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="4"/>
       <c r="K28" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AE28" s="12"/>
-      <c r="AF28" s="171"/>
-      <c r="AG28" s="171"/>
-      <c r="AH28" s="171"/>
-      <c r="AI28" s="171"/>
-      <c r="AJ28" s="171"/>
-      <c r="AK28" s="171"/>
-      <c r="AL28" s="172"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="66"/>
     </row>
     <row r="29" spans="1:38" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="176"/>
-      <c r="B29" s="174" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="4"/>
       <c r="J29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="12"/>
-      <c r="AF29" s="171"/>
-      <c r="AG29" s="171"/>
-      <c r="AH29" s="171"/>
-      <c r="AI29" s="171"/>
-      <c r="AJ29" s="171"/>
-      <c r="AK29" s="171"/>
-      <c r="AL29" s="172"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="65"/>
+      <c r="AI29" s="65"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="65"/>
+      <c r="AL29" s="66"/>
     </row>
     <row r="30" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="5"/>
@@ -7196,9 +7296,9 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="177"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -7240,7 +7340,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -7282,7 +7382,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -7364,7 +7464,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -7405,32 +7505,32 @@
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="180" t="s">
-        <v>126</v>
-      </c>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="181" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q35" s="182"/>
-      <c r="R35" s="182"/>
-      <c r="S35" s="182"/>
-      <c r="T35" s="182"/>
-      <c r="U35" s="182"/>
-      <c r="V35" s="182"/>
-      <c r="W35" s="182"/>
-      <c r="X35" s="182"/>
-      <c r="Y35" s="182"/>
-      <c r="Z35" s="183"/>
-      <c r="AA35" s="180" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB35" s="180"/>
-      <c r="AC35" s="180"/>
-      <c r="AD35" s="180"/>
+      <c r="K35" s="196" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" s="196"/>
+      <c r="M35" s="196"/>
+      <c r="N35" s="196"/>
+      <c r="O35" s="196"/>
+      <c r="P35" s="197" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35" s="198"/>
+      <c r="R35" s="198"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="198"/>
+      <c r="U35" s="198"/>
+      <c r="V35" s="198"/>
+      <c r="W35" s="198"/>
+      <c r="X35" s="198"/>
+      <c r="Y35" s="198"/>
+      <c r="Z35" s="199"/>
+      <c r="AA35" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB35" s="196"/>
+      <c r="AC35" s="196"/>
+      <c r="AD35" s="196"/>
       <c r="AE35" s="13"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
@@ -7451,32 +7551,32 @@
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="227" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="185" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q36" s="186"/>
-      <c r="R36" s="186"/>
-      <c r="S36" s="186"/>
-      <c r="T36" s="186"/>
-      <c r="U36" s="186"/>
-      <c r="V36" s="186"/>
-      <c r="W36" s="186"/>
-      <c r="X36" s="186"/>
-      <c r="Y36" s="186"/>
-      <c r="Z36" s="187"/>
-      <c r="AA36" s="130" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB36" s="130"/>
-      <c r="AC36" s="130"/>
-      <c r="AD36" s="130"/>
+      <c r="K36" s="205" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" s="200"/>
+      <c r="M36" s="200"/>
+      <c r="N36" s="200"/>
+      <c r="O36" s="200"/>
+      <c r="P36" s="201" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36" s="202"/>
+      <c r="R36" s="202"/>
+      <c r="S36" s="202"/>
+      <c r="T36" s="202"/>
+      <c r="U36" s="202"/>
+      <c r="V36" s="202"/>
+      <c r="W36" s="202"/>
+      <c r="X36" s="202"/>
+      <c r="Y36" s="202"/>
+      <c r="Z36" s="203"/>
+      <c r="AA36" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB36" s="180"/>
+      <c r="AC36" s="180"/>
+      <c r="AD36" s="180"/>
       <c r="AE36" s="13"/>
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
@@ -7497,32 +7597,32 @@
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
-      <c r="P37" s="185" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="186"/>
-      <c r="S37" s="186"/>
-      <c r="T37" s="186"/>
-      <c r="U37" s="186"/>
-      <c r="V37" s="186"/>
-      <c r="W37" s="186"/>
-      <c r="X37" s="186"/>
-      <c r="Y37" s="186"/>
-      <c r="Z37" s="187"/>
-      <c r="AA37" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB37" s="130"/>
-      <c r="AC37" s="130"/>
-      <c r="AD37" s="130"/>
+      <c r="K37" s="200" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="200"/>
+      <c r="M37" s="200"/>
+      <c r="N37" s="200"/>
+      <c r="O37" s="200"/>
+      <c r="P37" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q37" s="202"/>
+      <c r="R37" s="202"/>
+      <c r="S37" s="202"/>
+      <c r="T37" s="202"/>
+      <c r="U37" s="202"/>
+      <c r="V37" s="202"/>
+      <c r="W37" s="202"/>
+      <c r="X37" s="202"/>
+      <c r="Y37" s="202"/>
+      <c r="Z37" s="203"/>
+      <c r="AA37" s="180" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB37" s="180"/>
+      <c r="AC37" s="180"/>
+      <c r="AD37" s="180"/>
       <c r="AE37" s="13"/>
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
@@ -7543,32 +7643,32 @@
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="184" t="s">
-        <v>134</v>
-      </c>
-      <c r="L38" s="184"/>
-      <c r="M38" s="184"/>
-      <c r="N38" s="184"/>
-      <c r="O38" s="184"/>
-      <c r="P38" s="185" t="s">
+      <c r="K38" s="200" t="s">
+        <v>131</v>
+      </c>
+      <c r="L38" s="200"/>
+      <c r="M38" s="200"/>
+      <c r="N38" s="200"/>
+      <c r="O38" s="200"/>
+      <c r="P38" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q38" s="202"/>
+      <c r="R38" s="202"/>
+      <c r="S38" s="202"/>
+      <c r="T38" s="202"/>
+      <c r="U38" s="202"/>
+      <c r="V38" s="202"/>
+      <c r="W38" s="202"/>
+      <c r="X38" s="202"/>
+      <c r="Y38" s="202"/>
+      <c r="Z38" s="203"/>
+      <c r="AA38" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q38" s="186"/>
-      <c r="R38" s="186"/>
-      <c r="S38" s="186"/>
-      <c r="T38" s="186"/>
-      <c r="U38" s="186"/>
-      <c r="V38" s="186"/>
-      <c r="W38" s="186"/>
-      <c r="X38" s="186"/>
-      <c r="Y38" s="186"/>
-      <c r="Z38" s="187"/>
-      <c r="AA38" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB38" s="130"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="130"/>
+      <c r="AB38" s="180"/>
+      <c r="AC38" s="180"/>
+      <c r="AD38" s="180"/>
       <c r="AE38" s="13"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
@@ -7589,32 +7689,32 @@
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="184" t="s">
-        <v>136</v>
-      </c>
-      <c r="L39" s="184"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="184"/>
-      <c r="O39" s="184"/>
-      <c r="P39" s="185" t="s">
+      <c r="K39" s="200" t="s">
+        <v>133</v>
+      </c>
+      <c r="L39" s="200"/>
+      <c r="M39" s="200"/>
+      <c r="N39" s="200"/>
+      <c r="O39" s="200"/>
+      <c r="P39" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q39" s="202"/>
+      <c r="R39" s="202"/>
+      <c r="S39" s="202"/>
+      <c r="T39" s="202"/>
+      <c r="U39" s="202"/>
+      <c r="V39" s="202"/>
+      <c r="W39" s="202"/>
+      <c r="X39" s="202"/>
+      <c r="Y39" s="202"/>
+      <c r="Z39" s="203"/>
+      <c r="AA39" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q39" s="186"/>
-      <c r="R39" s="186"/>
-      <c r="S39" s="186"/>
-      <c r="T39" s="186"/>
-      <c r="U39" s="186"/>
-      <c r="V39" s="186"/>
-      <c r="W39" s="186"/>
-      <c r="X39" s="186"/>
-      <c r="Y39" s="186"/>
-      <c r="Z39" s="187"/>
-      <c r="AA39" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB39" s="130"/>
-      <c r="AC39" s="130"/>
-      <c r="AD39" s="130"/>
+      <c r="AB39" s="180"/>
+      <c r="AC39" s="180"/>
+      <c r="AD39" s="180"/>
       <c r="AE39" s="13"/>
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
@@ -7635,32 +7735,32 @@
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="184" t="s">
-        <v>137</v>
-      </c>
-      <c r="L40" s="184"/>
-      <c r="M40" s="184"/>
-      <c r="N40" s="184"/>
-      <c r="O40" s="184"/>
-      <c r="P40" s="185" t="s">
+      <c r="K40" s="200" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40" s="200"/>
+      <c r="M40" s="200"/>
+      <c r="N40" s="200"/>
+      <c r="O40" s="200"/>
+      <c r="P40" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q40" s="202"/>
+      <c r="R40" s="202"/>
+      <c r="S40" s="202"/>
+      <c r="T40" s="202"/>
+      <c r="U40" s="202"/>
+      <c r="V40" s="202"/>
+      <c r="W40" s="202"/>
+      <c r="X40" s="202"/>
+      <c r="Y40" s="202"/>
+      <c r="Z40" s="203"/>
+      <c r="AA40" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q40" s="186"/>
-      <c r="R40" s="186"/>
-      <c r="S40" s="186"/>
-      <c r="T40" s="186"/>
-      <c r="U40" s="186"/>
-      <c r="V40" s="186"/>
-      <c r="W40" s="186"/>
-      <c r="X40" s="186"/>
-      <c r="Y40" s="186"/>
-      <c r="Z40" s="187"/>
-      <c r="AA40" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB40" s="130"/>
-      <c r="AC40" s="130"/>
-      <c r="AD40" s="130"/>
+      <c r="AB40" s="180"/>
+      <c r="AC40" s="180"/>
+      <c r="AD40" s="180"/>
       <c r="AE40" s="13"/>
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
@@ -7681,32 +7781,32 @@
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="184" t="s">
-        <v>138</v>
-      </c>
-      <c r="L41" s="184"/>
-      <c r="M41" s="184"/>
-      <c r="N41" s="184"/>
-      <c r="O41" s="184"/>
-      <c r="P41" s="185" t="s">
+      <c r="K41" s="200" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" s="200"/>
+      <c r="M41" s="200"/>
+      <c r="N41" s="200"/>
+      <c r="O41" s="200"/>
+      <c r="P41" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q41" s="202"/>
+      <c r="R41" s="202"/>
+      <c r="S41" s="202"/>
+      <c r="T41" s="202"/>
+      <c r="U41" s="202"/>
+      <c r="V41" s="202"/>
+      <c r="W41" s="202"/>
+      <c r="X41" s="202"/>
+      <c r="Y41" s="202"/>
+      <c r="Z41" s="203"/>
+      <c r="AA41" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q41" s="186"/>
-      <c r="R41" s="186"/>
-      <c r="S41" s="186"/>
-      <c r="T41" s="186"/>
-      <c r="U41" s="186"/>
-      <c r="V41" s="186"/>
-      <c r="W41" s="186"/>
-      <c r="X41" s="186"/>
-      <c r="Y41" s="186"/>
-      <c r="Z41" s="187"/>
-      <c r="AA41" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB41" s="130"/>
-      <c r="AC41" s="130"/>
-      <c r="AD41" s="130"/>
+      <c r="AB41" s="180"/>
+      <c r="AC41" s="180"/>
+      <c r="AD41" s="180"/>
       <c r="AE41" s="13"/>
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
@@ -7727,32 +7827,32 @@
       <c r="H42" s="5"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="L42" s="184"/>
-      <c r="M42" s="184"/>
-      <c r="N42" s="184"/>
-      <c r="O42" s="184"/>
-      <c r="P42" s="185" t="s">
+      <c r="K42" s="204" t="s">
+        <v>136</v>
+      </c>
+      <c r="L42" s="200"/>
+      <c r="M42" s="200"/>
+      <c r="N42" s="200"/>
+      <c r="O42" s="200"/>
+      <c r="P42" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q42" s="202"/>
+      <c r="R42" s="202"/>
+      <c r="S42" s="202"/>
+      <c r="T42" s="202"/>
+      <c r="U42" s="202"/>
+      <c r="V42" s="202"/>
+      <c r="W42" s="202"/>
+      <c r="X42" s="202"/>
+      <c r="Y42" s="202"/>
+      <c r="Z42" s="203"/>
+      <c r="AA42" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q42" s="186"/>
-      <c r="R42" s="186"/>
-      <c r="S42" s="186"/>
-      <c r="T42" s="186"/>
-      <c r="U42" s="186"/>
-      <c r="V42" s="186"/>
-      <c r="W42" s="186"/>
-      <c r="X42" s="186"/>
-      <c r="Y42" s="186"/>
-      <c r="Z42" s="187"/>
-      <c r="AA42" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB42" s="130"/>
-      <c r="AC42" s="130"/>
-      <c r="AD42" s="130"/>
+      <c r="AB42" s="180"/>
+      <c r="AC42" s="180"/>
+      <c r="AD42" s="180"/>
       <c r="AE42" s="13"/>
       <c r="AF42" s="8"/>
       <c r="AG42" s="8"/>
@@ -7773,32 +7873,32 @@
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="188" t="s">
-        <v>140</v>
-      </c>
-      <c r="L43" s="184"/>
-      <c r="M43" s="184"/>
-      <c r="N43" s="184"/>
-      <c r="O43" s="184"/>
-      <c r="P43" s="185" t="s">
+      <c r="K43" s="204" t="s">
+        <v>137</v>
+      </c>
+      <c r="L43" s="200"/>
+      <c r="M43" s="200"/>
+      <c r="N43" s="200"/>
+      <c r="O43" s="200"/>
+      <c r="P43" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q43" s="202"/>
+      <c r="R43" s="202"/>
+      <c r="S43" s="202"/>
+      <c r="T43" s="202"/>
+      <c r="U43" s="202"/>
+      <c r="V43" s="202"/>
+      <c r="W43" s="202"/>
+      <c r="X43" s="202"/>
+      <c r="Y43" s="202"/>
+      <c r="Z43" s="203"/>
+      <c r="AA43" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="186"/>
-      <c r="R43" s="186"/>
-      <c r="S43" s="186"/>
-      <c r="T43" s="186"/>
-      <c r="U43" s="186"/>
-      <c r="V43" s="186"/>
-      <c r="W43" s="186"/>
-      <c r="X43" s="186"/>
-      <c r="Y43" s="186"/>
-      <c r="Z43" s="187"/>
-      <c r="AA43" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB43" s="130"/>
-      <c r="AC43" s="130"/>
-      <c r="AD43" s="130"/>
+      <c r="AB43" s="180"/>
+      <c r="AC43" s="180"/>
+      <c r="AD43" s="180"/>
       <c r="AE43" s="13"/>
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
@@ -7819,32 +7919,32 @@
       <c r="H44" s="5"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="188" t="s">
-        <v>141</v>
-      </c>
-      <c r="L44" s="184"/>
-      <c r="M44" s="184"/>
-      <c r="N44" s="184"/>
-      <c r="O44" s="184"/>
-      <c r="P44" s="185" t="s">
+      <c r="K44" s="204" t="s">
+        <v>138</v>
+      </c>
+      <c r="L44" s="200"/>
+      <c r="M44" s="200"/>
+      <c r="N44" s="200"/>
+      <c r="O44" s="200"/>
+      <c r="P44" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q44" s="202"/>
+      <c r="R44" s="202"/>
+      <c r="S44" s="202"/>
+      <c r="T44" s="202"/>
+      <c r="U44" s="202"/>
+      <c r="V44" s="202"/>
+      <c r="W44" s="202"/>
+      <c r="X44" s="202"/>
+      <c r="Y44" s="202"/>
+      <c r="Z44" s="203"/>
+      <c r="AA44" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q44" s="186"/>
-      <c r="R44" s="186"/>
-      <c r="S44" s="186"/>
-      <c r="T44" s="186"/>
-      <c r="U44" s="186"/>
-      <c r="V44" s="186"/>
-      <c r="W44" s="186"/>
-      <c r="X44" s="186"/>
-      <c r="Y44" s="186"/>
-      <c r="Z44" s="187"/>
-      <c r="AA44" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB44" s="130"/>
-      <c r="AC44" s="130"/>
-      <c r="AD44" s="130"/>
+      <c r="AB44" s="180"/>
+      <c r="AC44" s="180"/>
+      <c r="AD44" s="180"/>
       <c r="AE44" s="13"/>
       <c r="AF44" s="8"/>
       <c r="AG44" s="8"/>
@@ -7865,32 +7965,32 @@
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="188" t="s">
-        <v>142</v>
-      </c>
-      <c r="L45" s="184"/>
-      <c r="M45" s="184"/>
-      <c r="N45" s="184"/>
-      <c r="O45" s="184"/>
-      <c r="P45" s="185" t="s">
+      <c r="K45" s="204" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" s="200"/>
+      <c r="M45" s="200"/>
+      <c r="N45" s="200"/>
+      <c r="O45" s="200"/>
+      <c r="P45" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q45" s="202"/>
+      <c r="R45" s="202"/>
+      <c r="S45" s="202"/>
+      <c r="T45" s="202"/>
+      <c r="U45" s="202"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202"/>
+      <c r="X45" s="202"/>
+      <c r="Y45" s="202"/>
+      <c r="Z45" s="203"/>
+      <c r="AA45" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q45" s="186"/>
-      <c r="R45" s="186"/>
-      <c r="S45" s="186"/>
-      <c r="T45" s="186"/>
-      <c r="U45" s="186"/>
-      <c r="V45" s="186"/>
-      <c r="W45" s="186"/>
-      <c r="X45" s="186"/>
-      <c r="Y45" s="186"/>
-      <c r="Z45" s="187"/>
-      <c r="AA45" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB45" s="130"/>
-      <c r="AC45" s="130"/>
-      <c r="AD45" s="130"/>
+      <c r="AB45" s="180"/>
+      <c r="AC45" s="180"/>
+      <c r="AD45" s="180"/>
       <c r="AE45" s="13"/>
       <c r="AF45" s="8"/>
       <c r="AG45" s="8"/>
@@ -7911,32 +8011,32 @@
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="188" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" s="184"/>
-      <c r="M46" s="184"/>
-      <c r="N46" s="184"/>
-      <c r="O46" s="184"/>
-      <c r="P46" s="185" t="s">
+      <c r="K46" s="204" t="s">
+        <v>140</v>
+      </c>
+      <c r="L46" s="200"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="200"/>
+      <c r="O46" s="200"/>
+      <c r="P46" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q46" s="202"/>
+      <c r="R46" s="202"/>
+      <c r="S46" s="202"/>
+      <c r="T46" s="202"/>
+      <c r="U46" s="202"/>
+      <c r="V46" s="202"/>
+      <c r="W46" s="202"/>
+      <c r="X46" s="202"/>
+      <c r="Y46" s="202"/>
+      <c r="Z46" s="203"/>
+      <c r="AA46" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q46" s="186"/>
-      <c r="R46" s="186"/>
-      <c r="S46" s="186"/>
-      <c r="T46" s="186"/>
-      <c r="U46" s="186"/>
-      <c r="V46" s="186"/>
-      <c r="W46" s="186"/>
-      <c r="X46" s="186"/>
-      <c r="Y46" s="186"/>
-      <c r="Z46" s="187"/>
-      <c r="AA46" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB46" s="130"/>
-      <c r="AC46" s="130"/>
-      <c r="AD46" s="130"/>
+      <c r="AB46" s="180"/>
+      <c r="AC46" s="180"/>
+      <c r="AD46" s="180"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="8"/>
       <c r="AG46" s="8"/>
@@ -7957,32 +8057,32 @@
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="188" t="s">
-        <v>144</v>
-      </c>
-      <c r="L47" s="184"/>
-      <c r="M47" s="184"/>
-      <c r="N47" s="184"/>
-      <c r="O47" s="184"/>
-      <c r="P47" s="185" t="s">
+      <c r="K47" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="L47" s="200"/>
+      <c r="M47" s="200"/>
+      <c r="N47" s="200"/>
+      <c r="O47" s="200"/>
+      <c r="P47" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q47" s="202"/>
+      <c r="R47" s="202"/>
+      <c r="S47" s="202"/>
+      <c r="T47" s="202"/>
+      <c r="U47" s="202"/>
+      <c r="V47" s="202"/>
+      <c r="W47" s="202"/>
+      <c r="X47" s="202"/>
+      <c r="Y47" s="202"/>
+      <c r="Z47" s="203"/>
+      <c r="AA47" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q47" s="186"/>
-      <c r="R47" s="186"/>
-      <c r="S47" s="186"/>
-      <c r="T47" s="186"/>
-      <c r="U47" s="186"/>
-      <c r="V47" s="186"/>
-      <c r="W47" s="186"/>
-      <c r="X47" s="186"/>
-      <c r="Y47" s="186"/>
-      <c r="Z47" s="187"/>
-      <c r="AA47" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB47" s="130"/>
-      <c r="AC47" s="130"/>
-      <c r="AD47" s="130"/>
+      <c r="AB47" s="180"/>
+      <c r="AC47" s="180"/>
+      <c r="AD47" s="180"/>
       <c r="AE47" s="13"/>
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
@@ -8044,7 +8144,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -8085,32 +8185,32 @@
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="180" t="s">
-        <v>126</v>
-      </c>
-      <c r="L50" s="180"/>
-      <c r="M50" s="180"/>
-      <c r="N50" s="180"/>
-      <c r="O50" s="180"/>
-      <c r="P50" s="181" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q50" s="182"/>
-      <c r="R50" s="182"/>
-      <c r="S50" s="182"/>
-      <c r="T50" s="182"/>
-      <c r="U50" s="182"/>
-      <c r="V50" s="182"/>
-      <c r="W50" s="182"/>
-      <c r="X50" s="182"/>
-      <c r="Y50" s="182"/>
-      <c r="Z50" s="183"/>
-      <c r="AA50" s="180" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB50" s="180"/>
-      <c r="AC50" s="180"/>
-      <c r="AD50" s="180"/>
+      <c r="K50" s="196" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="196"/>
+      <c r="M50" s="196"/>
+      <c r="N50" s="196"/>
+      <c r="O50" s="196"/>
+      <c r="P50" s="197" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q50" s="198"/>
+      <c r="R50" s="198"/>
+      <c r="S50" s="198"/>
+      <c r="T50" s="198"/>
+      <c r="U50" s="198"/>
+      <c r="V50" s="198"/>
+      <c r="W50" s="198"/>
+      <c r="X50" s="198"/>
+      <c r="Y50" s="198"/>
+      <c r="Z50" s="199"/>
+      <c r="AA50" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB50" s="196"/>
+      <c r="AC50" s="196"/>
+      <c r="AD50" s="196"/>
       <c r="AE50" s="13"/>
       <c r="AF50" s="6"/>
       <c r="AG50" s="6"/>
@@ -8131,32 +8231,32 @@
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="184" t="s">
-        <v>146</v>
-      </c>
-      <c r="L51" s="184"/>
-      <c r="M51" s="184"/>
-      <c r="N51" s="184"/>
-      <c r="O51" s="184"/>
-      <c r="P51" s="185" t="s">
+      <c r="K51" s="200" t="s">
+        <v>143</v>
+      </c>
+      <c r="L51" s="200"/>
+      <c r="M51" s="200"/>
+      <c r="N51" s="200"/>
+      <c r="O51" s="200"/>
+      <c r="P51" s="201" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q51" s="202"/>
+      <c r="R51" s="202"/>
+      <c r="S51" s="202"/>
+      <c r="T51" s="202"/>
+      <c r="U51" s="202"/>
+      <c r="V51" s="202"/>
+      <c r="W51" s="202"/>
+      <c r="X51" s="202"/>
+      <c r="Y51" s="202"/>
+      <c r="Z51" s="203"/>
+      <c r="AA51" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="Q51" s="186"/>
-      <c r="R51" s="186"/>
-      <c r="S51" s="186"/>
-      <c r="T51" s="186"/>
-      <c r="U51" s="186"/>
-      <c r="V51" s="186"/>
-      <c r="W51" s="186"/>
-      <c r="X51" s="186"/>
-      <c r="Y51" s="186"/>
-      <c r="Z51" s="187"/>
-      <c r="AA51" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB51" s="130"/>
-      <c r="AC51" s="130"/>
-      <c r="AD51" s="130"/>
+      <c r="AB51" s="180"/>
+      <c r="AC51" s="180"/>
+      <c r="AD51" s="180"/>
       <c r="AE51" s="13"/>
       <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
@@ -8177,8 +8277,8 @@
       <c r="H52" s="5"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="189" t="s">
-        <v>147</v>
+      <c r="K52" s="71" t="s">
+        <v>144</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -8219,7 +8319,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="61"/>
+      <c r="K53" s="59"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -8259,8 +8359,8 @@
       <c r="H54" s="5"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="189" t="s">
-        <v>162</v>
+      <c r="K54" s="71" t="s">
+        <v>159</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -8301,9 +8401,9 @@
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="61"/>
+      <c r="K55" s="59"/>
       <c r="L55" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -8343,9 +8443,9 @@
       <c r="H56" s="5"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="61"/>
+      <c r="K56" s="59"/>
       <c r="L56" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -8385,7 +8485,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="61"/>
+      <c r="K57" s="59"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -8425,8 +8525,8 @@
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="189" t="s">
-        <v>150</v>
+      <c r="K58" s="71" t="s">
+        <v>147</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -8448,8 +8548,8 @@
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
       <c r="AE58" s="13"/>
-      <c r="AF58" s="61" t="s">
-        <v>117</v>
+      <c r="AF58" s="59" t="s">
+        <v>114</v>
       </c>
       <c r="AG58" s="8"/>
       <c r="AH58" s="8"/>
@@ -8470,7 +8570,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -8502,7 +8602,7 @@
     </row>
     <row r="60" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -8513,7 +8613,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -8537,7 +8637,7 @@
       <c r="AD60" s="6"/>
       <c r="AE60" s="13"/>
       <c r="AF60" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -8547,26 +8647,26 @@
       <c r="AL60" s="12"/>
     </row>
     <row r="61" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="173"/>
-      <c r="B61" s="174" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
-      <c r="E61" s="174"/>
-      <c r="F61" s="174"/>
-      <c r="G61" s="174"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
       <c r="H61" s="5"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="L61" s="177"/>
-      <c r="M61" s="177"/>
-      <c r="N61" s="177"/>
-      <c r="O61" s="177"/>
-      <c r="P61" s="177"/>
+        <v>148</v>
+      </c>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
@@ -8593,7 +8693,7 @@
     <row r="62" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8604,7 +8704,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -8636,8 +8736,8 @@
     </row>
     <row r="63" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="4"/>
-      <c r="B63" s="191" t="s">
-        <v>166</v>
+      <c r="B63" s="73" t="s">
+        <v>163</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="6"/>
@@ -8678,8 +8778,8 @@
     </row>
     <row r="64" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A64" s="5"/>
-      <c r="B64" s="191" t="s">
-        <v>167</v>
+      <c r="B64" s="73" t="s">
+        <v>164</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -8690,7 +8790,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -8733,7 +8833,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -8775,7 +8875,7 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -8817,7 +8917,7 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -8858,8 +8958,8 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="192" t="s">
-        <v>168</v>
+      <c r="L68" s="74" t="s">
+        <v>165</v>
       </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -8900,8 +9000,8 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="192" t="s">
-        <v>169</v>
+      <c r="L69" s="74" t="s">
+        <v>166</v>
       </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -8982,7 +9082,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -9025,7 +9125,7 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -9067,7 +9167,7 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -9138,7 +9238,7 @@
     </row>
     <row r="75" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A75" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -9149,7 +9249,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
       <c r="J75" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -9231,7 +9331,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -9274,7 +9374,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -9308,7 +9408,7 @@
       <c r="A79" s="4"/>
       <c r="H79" s="4"/>
       <c r="K79" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AE79" s="12"/>
       <c r="AL79" s="12"/>
@@ -9357,22 +9457,22 @@
       <c r="A81" s="4"/>
       <c r="H81" s="4"/>
       <c r="J81" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AE81" s="12"/>
       <c r="AF81" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AL81" s="12"/>
     </row>
     <row r="82" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A82" s="60"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
       <c r="H82" s="5"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -9522,83 +9622,6 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="P50:Z50"/>
-    <mergeCell ref="AA50:AD50"/>
-    <mergeCell ref="K51:O51"/>
-    <mergeCell ref="P51:Z51"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="P46:Z46"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Z47"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="P44:Z44"/>
-    <mergeCell ref="AA44:AD44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="P45:Z45"/>
-    <mergeCell ref="AA45:AD45"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="P42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="P43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="P40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="P41:Z41"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="P38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="P39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="P36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="P37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="AF25:AL25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="AF26:AL26"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="P35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="AF8:AL8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="AF9:AL9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:AE6"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="AF7:AL7"/>
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="A1:N4"/>
@@ -9613,8 +9636,85 @@
     <mergeCell ref="T1:AA1"/>
     <mergeCell ref="T2:AA2"/>
     <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:AE6"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="AF7:AL7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="AF15:AL15"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="AF26:AL26"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="P35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="P36:Z36"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="P37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="P38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="P39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="P40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="P41:Z41"/>
+    <mergeCell ref="AA41:AD41"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="P42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="P43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="P44:Z44"/>
+    <mergeCell ref="AA44:AD44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="P45:Z45"/>
+    <mergeCell ref="AA45:AD45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="P46:Z46"/>
+    <mergeCell ref="AA46:AD46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Z47"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="P50:Z50"/>
+    <mergeCell ref="AA50:AD50"/>
+    <mergeCell ref="K51:O51"/>
+    <mergeCell ref="P51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
   </mergeCells>
-  <phoneticPr fontId="15"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
 </worksheet>
